--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauso\Documents\testArc\externals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\TestRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC43876-79DD-4397-8B3E-9CB3116F505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB135BA6-97EB-4B59-91EF-DA70539DD494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>B</t>
   </si>
@@ -365,26 +362,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
